--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -11,11 +11,10 @@
     <s:sheet name="Classification" sheetId="2" r:id="rId2"/>
     <s:sheet name="Documents" sheetId="3" r:id="rId3"/>
     <s:sheet name="Event" sheetId="4" r:id="rId4"/>
-    <s:sheet name="Gazeteer" sheetId="5" r:id="rId5"/>
-    <s:sheet name="GrantProgramme" sheetId="6" r:id="rId6"/>
-    <s:sheet name="Location" sheetId="7" r:id="rId7"/>
-    <s:sheet name="Organization" sheetId="8" r:id="rId8"/>
-    <s:sheet name="Transaction" sheetId="9" r:id="rId9"/>
+    <s:sheet name="GrantProgramme" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Location" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Organization" sheetId="7" r:id="rId7"/>
+    <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -100,24 +99,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>Activity/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/recipientOrganization[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/recipientOrganization[]/location[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/beneficiaryLocation[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/fundingOrganization[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/fundingOrganization[]/location[]/id:gazeteerEntry</t>
-  </si>
-  <si>
     <t>Activity/id:grantProgramme</t>
   </si>
   <si>
@@ -139,7 +120,16 @@
     <t>countryCode</t>
   </si>
   <si>
-    <t>point</t>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>geoCode</t>
+  </si>
+  <si>
+    <t>geoCodeType</t>
   </si>
   <si>
     <t>Activity/id:recipientOrganization</t>
@@ -738,65 +728,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -810,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -833,12 +764,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,38 +777,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -886,7 +826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,55 +844,55 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>51</v>
       </c>
       <c r="Q1" t="s">
         <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -966,7 +906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -984,37 +924,37 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>

--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -33,21 +33,24 @@
     <t>description</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>amountAppliedFor:number</t>
+  </si>
+  <si>
+    <t>amountAwarded:number</t>
+  </si>
+  <si>
+    <t>amountDisbursed:number</t>
+  </si>
+  <si>
+    <t>awardDate</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>amountAppliedFor:number</t>
-  </si>
-  <si>
-    <t>amountAwarded:number</t>
-  </si>
-  <si>
-    <t>amountDisbursed:number</t>
-  </si>
-  <si>
     <t>fromOpenCall</t>
   </si>
   <si>
@@ -84,9 +87,6 @@
     <t>Activity/id:plannedDates</t>
   </si>
   <si>
-    <t>Activity/id:awardDate</t>
-  </si>
-  <si>
     <t>Activity/id:actualDates</t>
   </si>
   <si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Activity/id:fundingOrganization</t>
+  </si>
+  <si>
+    <t>department</t>
   </si>
   <si>
     <t>contactName</t>
@@ -531,7 +534,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +542,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +578,9 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -597,19 +603,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -618,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -644,10 +650,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -656,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +684,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,36 +692,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -738,13 +741,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -753,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +782,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -818,7 +821,7 @@
         <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +834,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,9 +842,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
@@ -889,16 +892,19 @@
         <v>48</v>
       </c>
       <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
-        <v>49</v>
-      </c>
       <c r="S1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -921,43 +927,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>dataSource</t>
-  </si>
-  <si>
-    <t>ocid</t>
   </si>
   <si>
     <t>Activity/id:fundingType</t>
@@ -593,7 +590,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +598,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -615,18 +612,15 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -636,6 +630,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -650,25 +685,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -679,12 +714,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,32 +727,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -726,193 +752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -927,7 +767,146 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
@@ -936,33 +915,30 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
       </c>
       <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
       </c>
       <c r="K1" t="s">
         <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -7,7 +7,7 @@
     <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Activity" sheetId="1" r:id="rId1"/>
+    <s:sheet name="grants" sheetId="1" r:id="rId1"/>
     <s:sheet name="Classification" sheetId="2" r:id="rId2"/>
     <s:sheet name="Documents" sheetId="3" r:id="rId3"/>
     <s:sheet name="Event" sheetId="4" r:id="rId4"/>
@@ -63,10 +63,10 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>Activity/id:fundingType</t>
-  </si>
-  <si>
-    <t>Activity/id:classifications</t>
+    <t>grants/id:fundingType</t>
+  </si>
+  <si>
+    <t>grants/id:classifications</t>
   </si>
   <si>
     <t>vocabulary</t>
@@ -75,16 +75,16 @@
     <t>code</t>
   </si>
   <si>
-    <t>Activity/id:relatedDocument</t>
+    <t>grants/id:relatedDocument</t>
   </si>
   <si>
     <t>documentType</t>
   </si>
   <si>
-    <t>Activity/id:plannedDates</t>
-  </si>
-  <si>
-    <t>Activity/id:actualDates</t>
+    <t>grants/id:plannedDates</t>
+  </si>
+  <si>
+    <t>grants/id:actualDates</t>
   </si>
   <si>
     <t>startDate</t>
@@ -96,19 +96,19 @@
     <t>duration</t>
   </si>
   <si>
-    <t>Activity/id:grantProgramme</t>
-  </si>
-  <si>
-    <t>Activity/id:location</t>
-  </si>
-  <si>
-    <t>Activity/recipientOrganization[]/id:location</t>
-  </si>
-  <si>
-    <t>Activity/id:beneficiaryLocation</t>
-  </si>
-  <si>
-    <t>Activity/fundingOrganization[]/id:location</t>
+    <t>grants/id:grantProgramme</t>
+  </si>
+  <si>
+    <t>grants/id:location</t>
+  </si>
+  <si>
+    <t>grants/recipientOrganization[]/id:location</t>
+  </si>
+  <si>
+    <t>grants/id:beneficiaryLocation</t>
+  </si>
+  <si>
+    <t>grants/fundingOrganization[]/id:location</t>
   </si>
   <si>
     <t>name</t>
@@ -129,10 +129,10 @@
     <t>geoCodeType</t>
   </si>
   <si>
-    <t>Activity/id:recipientOrganization</t>
-  </si>
-  <si>
-    <t>Activity/id:fundingOrganization</t>
+    <t>grants/id:recipientOrganization</t>
+  </si>
+  <si>
+    <t>grants/id:fundingOrganization</t>
   </si>
   <si>
     <t>department</t>
@@ -174,13 +174,13 @@
     <t>organisationType</t>
   </si>
   <si>
-    <t>Activity/id:applicationTransaction</t>
-  </si>
-  <si>
-    <t>Activity/id:commitmentTransaction</t>
-  </si>
-  <si>
-    <t>Activity/id:disbursementTransaction</t>
+    <t>grants/id:applicationTransaction</t>
+  </si>
+  <si>
+    <t>grants/id:commitmentTransaction</t>
+  </si>
+  <si>
+    <t>grants/id:disbursementTransaction</t>
   </si>
   <si>
     <t>transactionDate</t>

--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -581,12 +581,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -625,12 +625,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -666,12 +666,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -710,12 +710,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -748,12 +748,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -807,12 +807,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -887,12 +887,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -943,6 +943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -539,49 +539,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row spans="1:13" r="1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -598,34 +598,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -642,31 +642,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -683,34 +683,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -727,28 +727,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row spans="1:6" r="1">
+      <c t="s" r="A1">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -765,49 +765,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row spans="1:13" r="1">
+      <c t="s" r="A1">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -824,70 +824,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row spans="1:20" r="1">
+      <c t="s" r="A1">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>8</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -904,45 +904,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row spans="1:12" r="1">
+      <c t="s" r="A1">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" top="1" bottom="1" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -581,7 +581,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -625,7 +625,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -666,7 +666,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -710,7 +710,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -748,7 +748,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -807,7 +807,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -887,7 +887,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -943,6 +943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" header="0.5" left="0.75" bottom="1" top="1" footer="0.5"/>
+  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -581,12 +581,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -625,12 +625,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -666,12 +666,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -710,12 +710,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -748,12 +748,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -807,12 +807,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -887,12 +887,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -943,6 +943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" bottom="1" footer="0.5" left="0.75" top="1"/>
+  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -539,7 +539,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:13" r="1">
+    <row r="1" spans="1:13">
       <c t="s" r="A1">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
 
@@ -598,7 +598,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c t="s" r="A1">
         <v>13</v>
       </c>
@@ -625,7 +625,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
 
@@ -642,7 +642,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:7" r="1">
+    <row r="1" spans="1:7">
       <c t="s" r="A1">
         <v>17</v>
       </c>
@@ -666,7 +666,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
 
@@ -683,7 +683,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c t="s" r="A1">
         <v>19</v>
       </c>
@@ -710,7 +710,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
 
@@ -727,7 +727,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:6" r="1">
+    <row r="1" spans="1:6">
       <c t="s" r="A1">
         <v>24</v>
       </c>
@@ -748,7 +748,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
 
@@ -765,7 +765,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:13" r="1">
+    <row r="1" spans="1:13">
       <c t="s" r="A1">
         <v>25</v>
       </c>
@@ -807,7 +807,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
 
@@ -824,7 +824,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:20" r="1">
+    <row r="1" spans="1:20">
       <c t="s" r="A1">
         <v>35</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
 
@@ -904,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:12" r="1">
+    <row r="1" spans="1:12">
       <c t="s" r="A1">
         <v>50</v>
       </c>
@@ -943,6 +943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -540,48 +540,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
 
@@ -599,33 +599,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
 
@@ -643,30 +643,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
 
@@ -684,33 +684,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
 
@@ -728,27 +728,27 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
 
@@ -766,48 +766,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
 
@@ -825,69 +825,69 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
 
@@ -905,44 +905,44 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" header="0.5" footer="0.5" right="0.75" left="0.75" bottom="1"/>
+  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -540,48 +540,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -599,33 +599,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -643,30 +643,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -684,33 +684,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -728,27 +728,27 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -766,48 +766,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -825,69 +825,69 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>8</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -905,44 +905,44 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c t="s" r="A1">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" bottom="1" top="1" footer="0.5" left="0.75" header="0.5"/>
+  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -1,10 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:workbookPr/>
   <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
 </s:workbook>
 </file>
 
@@ -205,10 +204,10 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -527,10 +526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -540,56 +539,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -599,41 +598,41 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -643,38 +642,38 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -684,41 +683,41 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -728,35 +727,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -766,56 +765,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -825,77 +824,77 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -905,44 +904,44 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" footer="0.5" left="0.75" bottom="1" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -1,9 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
     <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </s:workbook>
 </file>
 
@@ -204,10 +205,10 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -526,10 +527,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -580,15 +581,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -624,15 +625,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -665,15 +666,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -709,15 +710,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -747,15 +748,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -806,15 +807,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -886,15 +887,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -942,6 +943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -581,12 +581,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -625,12 +625,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -666,12 +666,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -710,12 +710,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -748,12 +748,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -807,12 +807,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -887,12 +887,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -943,6 +943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" bottom="1" footer="0.5" top="1" right="0.75" left="0.75"/>
+  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -581,12 +581,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -625,12 +625,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -666,12 +666,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -710,12 +710,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -748,12 +748,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -807,12 +807,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -887,12 +887,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -943,6 +943,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" bottom="1" left="0.75" footer="0.5" header="0.5" right="0.75"/>
+  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -1,10 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:workbookPr/>
   <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
 </s:workbook>
 </file>
 
@@ -205,16 +204,16 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -236,7 +235,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -527,9 +526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -581,14 +581,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -625,14 +626,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -666,14 +668,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -710,14 +713,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -748,14 +752,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -807,14 +812,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
@@ -887,14 +893,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -943,6 +950,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" left="0.75" header="0.5" footer="0.5" bottom="1" right="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/schema/multi-table/360-giving-schema-fields.xlsx
+++ b/schema/multi-table/360-giving-schema-fields.xlsx
@@ -7,13 +7,20 @@
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Classification" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Documents" sheetId="3" r:id="rId3"/>
-    <s:sheet name="Event" sheetId="4" r:id="rId4"/>
-    <s:sheet name="GrantProgramme" sheetId="5" r:id="rId5"/>
-    <s:sheet name="Location" sheetId="6" r:id="rId6"/>
-    <s:sheet name="Organization" sheetId="7" r:id="rId7"/>
-    <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
+    <s:sheet name="actualDates" sheetId="2" r:id="rId2"/>
+    <s:sheet name="applicationTransaction" sheetId="3" r:id="rId3"/>
+    <s:sheet name="beneficiaryLocation" sheetId="4" r:id="rId4"/>
+    <s:sheet name="classifications" sheetId="5" r:id="rId5"/>
+    <s:sheet name="commitmentTransaction" sheetId="6" r:id="rId6"/>
+    <s:sheet name="disbursementTransaction" sheetId="7" r:id="rId7"/>
+    <s:sheet name="fun_location" sheetId="8" r:id="rId8"/>
+    <s:sheet name="fundingOrganization" sheetId="9" r:id="rId9"/>
+    <s:sheet name="fundingType" sheetId="10" r:id="rId10"/>
+    <s:sheet name="grantProgramme" sheetId="11" r:id="rId11"/>
+    <s:sheet name="plannedDates" sheetId="12" r:id="rId12"/>
+    <s:sheet name="rec_location" sheetId="13" r:id="rId13"/>
+    <s:sheet name="recipientOrganization" sheetId="14" r:id="rId14"/>
+    <s:sheet name="relatedDocument" sheetId="15" r:id="rId15"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -35,13 +42,13 @@
     <t>currency</t>
   </si>
   <si>
-    <t>amountAppliedFor:number</t>
-  </si>
-  <si>
-    <t>amountAwarded:number</t>
-  </si>
-  <si>
-    <t>amountDisbursed:number</t>
+    <t>amountAppliedFor</t>
+  </si>
+  <si>
+    <t>amountAwarded</t>
+  </si>
+  <si>
+    <t>amountDisbursed</t>
   </si>
   <si>
     <t>awardDate</t>
@@ -53,7 +60,7 @@
     <t>fromOpenCall</t>
   </si>
   <si>
-    <t>relatedActivity:array</t>
+    <t>relatedActivity</t>
   </si>
   <si>
     <t>dateModified</t>
@@ -62,139 +69,379 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>grants/id:fundingType</t>
-  </si>
-  <si>
-    <t>grants/id:classifications</t>
-  </si>
-  <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>grants/id:relatedDocument</t>
-  </si>
-  <si>
-    <t>documentType</t>
-  </si>
-  <si>
-    <t>grants/id:plannedDates</t>
-  </si>
-  <si>
-    <t>grants/id:actualDates</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>grants/id:grantProgramme</t>
-  </si>
-  <si>
-    <t>grants/id:location</t>
-  </si>
-  <si>
-    <t>grants/recipientOrganization[]/id:location</t>
-  </si>
-  <si>
-    <t>grants/id:beneficiaryLocation</t>
-  </si>
-  <si>
-    <t>grants/fundingOrganization[]/id:location</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>countryCode</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>geoCode</t>
-  </si>
-  <si>
-    <t>geoCodeType</t>
-  </si>
-  <si>
-    <t>grants/id:recipientOrganization</t>
-  </si>
-  <si>
-    <t>grants/id:fundingOrganization</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>contactName</t>
-  </si>
-  <si>
-    <t>charityNumber</t>
-  </si>
-  <si>
-    <t>companyNumber</t>
-  </si>
-  <si>
-    <t>streetAddress</t>
-  </si>
-  <si>
-    <t>addressLocality</t>
-  </si>
-  <si>
-    <t>addressRegion</t>
-  </si>
-  <si>
-    <t>addressCountry</t>
-  </si>
-  <si>
-    <t>postalCode</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>alternateName</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>organisationType</t>
-  </si>
-  <si>
-    <t>grants/id:applicationTransaction</t>
-  </si>
-  <si>
-    <t>grants/id:commitmentTransaction</t>
-  </si>
-  <si>
-    <t>grants/id:disbursementTransaction</t>
-  </si>
-  <si>
-    <t>transactionDate</t>
-  </si>
-  <si>
-    <t>value:integer</t>
-  </si>
-  <si>
-    <t>valueDate</t>
-  </si>
-  <si>
-    <t>provider</t>
-  </si>
-  <si>
-    <t>recipient</t>
+    <t>actualDates/0/title</t>
+  </si>
+  <si>
+    <t>actualDates/0/startDate</t>
+  </si>
+  <si>
+    <t>actualDates/0/endDate</t>
+  </si>
+  <si>
+    <t>actualDates/0/duration</t>
+  </si>
+  <si>
+    <t>actualDates/0/description</t>
+  </si>
+  <si>
+    <t>actualDates/0/dateModified</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/id</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/transactionDate</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/currency</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/value</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/valueDate</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/description</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/provider</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/recipient</t>
+  </si>
+  <si>
+    <t>applicationTransaction/0/dateModified</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/id</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/name</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/countryCode</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/latitude</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/longitude</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/description</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/geoCode</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/geoCodeType</t>
+  </si>
+  <si>
+    <t>beneficiaryLocation/0/dateModified</t>
+  </si>
+  <si>
+    <t>classifications/0/vocabulary</t>
+  </si>
+  <si>
+    <t>classifications/0/code</t>
+  </si>
+  <si>
+    <t>classifications/0/title</t>
+  </si>
+  <si>
+    <t>classifications/0/description</t>
+  </si>
+  <si>
+    <t>classifications/0/url</t>
+  </si>
+  <si>
+    <t>classifications/0/dateModified</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/id</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/transactionDate</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/currency</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/value</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/valueDate</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/description</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/provider</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/recipient</t>
+  </si>
+  <si>
+    <t>commitmentTransaction/0/dateModified</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/id</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/transactionDate</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/currency</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/value</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/valueDate</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/description</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/provider</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/recipient</t>
+  </si>
+  <si>
+    <t>disbursementTransaction/0/dateModified</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/id</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/id</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/name</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/countryCode</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/latitude</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/longitude</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/description</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/geoCode</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/geoCodeType</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/location/0/dateModified</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/name</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/department</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/contactName</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/charityNumber</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/companyNumber</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/streetAddress</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/addressLocality</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/addressRegion</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/addressCountry</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/postalCode</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/telephone</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/alternateName</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/email</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/description</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/organisationType</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/url</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/dateModified</t>
+  </si>
+  <si>
+    <t>fundingType/0/vocabulary</t>
+  </si>
+  <si>
+    <t>fundingType/0/code</t>
+  </si>
+  <si>
+    <t>fundingType/0/title</t>
+  </si>
+  <si>
+    <t>fundingType/0/description</t>
+  </si>
+  <si>
+    <t>fundingType/0/url</t>
+  </si>
+  <si>
+    <t>fundingType/0/dateModified</t>
+  </si>
+  <si>
+    <t>grantProgramme/0/code</t>
+  </si>
+  <si>
+    <t>grantProgramme/0/title</t>
+  </si>
+  <si>
+    <t>grantProgramme/0/description</t>
+  </si>
+  <si>
+    <t>grantProgramme/0/url</t>
+  </si>
+  <si>
+    <t>grantProgramme/0/dateModified</t>
+  </si>
+  <si>
+    <t>plannedDates/0/title</t>
+  </si>
+  <si>
+    <t>plannedDates/0/startDate</t>
+  </si>
+  <si>
+    <t>plannedDates/0/endDate</t>
+  </si>
+  <si>
+    <t>plannedDates/0/duration</t>
+  </si>
+  <si>
+    <t>plannedDates/0/description</t>
+  </si>
+  <si>
+    <t>plannedDates/0/dateModified</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/id</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/id</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/name</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/countryCode</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/latitude</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/longitude</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/description</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/geoCode</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/geoCodeType</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/location/0/dateModified</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/name</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/department</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/contactName</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/charityNumber</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/companyNumber</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/streetAddress</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/addressLocality</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/addressRegion</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/addressCountry</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/postalCode</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/telephone</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/alternateName</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/email</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/description</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/organisationType</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/url</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/dateModified</t>
+  </si>
+  <si>
+    <t>relatedDocument/0/id</t>
+  </si>
+  <si>
+    <t>relatedDocument/0/title</t>
+  </si>
+  <si>
+    <t>relatedDocument/0/url</t>
+  </si>
+  <si>
+    <t>relatedDocument/0/description</t>
+  </si>
+  <si>
+    <t>relatedDocument/0/documentType</t>
+  </si>
+  <si>
+    <t>relatedDocument/0/dateModified</t>
   </si>
 </sst>
 </file>
@@ -585,52 +832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -646,25 +848,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -672,52 +874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -733,22 +890,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -756,13 +913,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,45 +927,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -816,13 +955,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,66 +969,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1009,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,42 +1023,525 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>50</v>
       </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
